--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,184 +44,184 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 104: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 303: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 209: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 103: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
-Derslik 101: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 301: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 210: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 110: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 205: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 303: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+    <t>Derslik 202: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 303: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 301: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 210: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 208: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 110: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 209: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 201: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 110: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 105: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 302: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 203: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 301: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 303: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 210: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
 Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 203: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 102: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 204: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 208: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 101: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 103: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 109: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 101: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 201: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 108: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 205: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 110: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 302: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 208: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 301: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 303: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 105: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 102: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 110: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 209: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 104: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 109: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 202: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 209: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 104: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 210: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 301: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
+Derslik 110: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 109: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 302: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 105: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+Derslik 110: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 203: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
+Derslik 211: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 302: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 110: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 303: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 211: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 301: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 205: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ
+Derslik 201: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 303: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 209: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 210: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 102: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 103: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 204: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 211: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 104: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 205: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 203: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 205: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 303: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 211: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 204: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 203: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 108: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 210: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 302: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 202: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 201: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 205: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 103: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 110: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 201: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 105: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY</t>
   </si>
   <si>
     <t>Derslik 303: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 104: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 203: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 302: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 202: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 204: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 104: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 211: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 102: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 201: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 101: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA
-Derslik 209: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 204: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 211: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 101: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 202: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 203: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 202: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 209: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 111: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 204: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 211: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 209: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 210: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 109: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 302: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 205: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 108: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 105: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 210: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 211: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 301: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 303: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 302: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 110: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 203: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
-Derslik 102: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 110: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 103: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 101: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 108: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 211: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 204: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 105: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 103: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 204: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 111: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 210: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 208: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 208: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 209: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 108: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 104: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 210: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 301: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 101: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 303: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 101: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 201: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 109: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 210: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 110: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 111: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 203: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 202: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 103: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 203: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 201: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 202: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 204: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 203: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 205: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 101: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 209: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
 Derslik 208: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 203: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 205: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 204: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 303: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 102: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 209: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 301: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 208: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 104: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 202: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 111: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 209: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 302: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 211: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 204: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 303: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 108: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 201: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 111: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 101: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 301: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 209: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 109: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 208: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 102: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 210: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 103: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 110: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC</t>
+Derslik 301: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 110: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 110: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 211: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 103: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 201: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 208: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 101: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 204: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 105: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 301: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 102: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 202: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 208: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 210: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 109: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 303: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 302: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 110: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 109: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 103: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 201: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 102: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 205: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 101: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 109: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 209: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 203: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 208: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 111: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>2002</v>
+        <v>5008</v>
       </c>
     </row>
   </sheetData>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,184 +44,184 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 202: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 303: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 301: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 208: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 110: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 209: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 201: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 110: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 105: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 302: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 203: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 301: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 303: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 210: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 302: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 208: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 301: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 303: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 105: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 102: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 110: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 209: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 104: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 109: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+    <t>Derslik 203: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 301: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 302: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 205: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 104: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 110: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 104: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 211: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 202: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 211: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 303: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 301: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 208: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 210: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 101: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 303: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 201: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 104: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 102: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 210: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 302: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 205: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 110: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 102: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 209: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 210: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 302: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 105: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
 Derslik 202: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 209: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 104: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 103: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 203: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 209: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 208: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 301: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 301: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 105: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 211: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 302: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 203: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 204: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 111: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 303: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 210: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 101: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 205: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 104: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 211: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
 Derslik 210: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 301: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA
-Derslik 110: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 109: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 302: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 105: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
-Derslik 110: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 203: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC
-Derslik 211: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 302: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 110: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 303: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 211: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 301: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 210: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 205: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ
-Derslik 201: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 303: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 209: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 210: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 102: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 103: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 103: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 204: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 211: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 104: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 205: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 203: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 205: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 303: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 211: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 204: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 203: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 108: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 210: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 302: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 202: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 201: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 205: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 103: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 110: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 201: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 105: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 209: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY</t>
-  </si>
-  <si>
-    <t>Derslik 303: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 105: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 111: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 203: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 202: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 103: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 203: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 201: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 202: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 204: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 203: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 205: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 101: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 103: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 302: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 303: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 208: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 104: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 202: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 209: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 302: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 105: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 303: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 201: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 301: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+Derslik 208: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 101: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 203: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 108: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 302: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 111: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 101: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 303: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ
+Derslik 105: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 110: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 205: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 204: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 208: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 211: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
+Derslik 102: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 111: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 303: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 205: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 204: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 109: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 211: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 102: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 211: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 208: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 203: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 108: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 104: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 202: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 111: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
 Derslik 209: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 208: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 109: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 211: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 301: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 104: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 110: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 209: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 204: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 202: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 101: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 204: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 104: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 105: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 108: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 205: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 301: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 302: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 103: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 203: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 108: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 111: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 208: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 209: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 302: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 105: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
 Derslik 301: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 110: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 110: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 211: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 103: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 201: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 208: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 101: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 105: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 301: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 102: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 202: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 208: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 210: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 109: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 303: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 302: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 110: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 109: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 103: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 105: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 201: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 102: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 205: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 101: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 109: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 209: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 203: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 208: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 111: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 303: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 104: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 105: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 102: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 203: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>5008</v>
+        <v>5506</v>
       </c>
     </row>
   </sheetData>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,184 +44,184 @@
     <t>Cuma</t>
   </si>
   <si>
+    <t>Derslik 102: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 303: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 111: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+Derslik 208: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 301: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 101: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 103: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 108: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 302: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 209: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 201: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 202: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 111: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 210: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 103: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 102: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 203: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 203: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 105: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 301: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 109: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
     <t>Derslik 203: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 301: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 302: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 108: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 205: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 104: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 110: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 104: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 211: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 202: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 211: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 303: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 301: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 208: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 210: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 101: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+Derslik 111: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 110: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 209: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 102: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 103: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 108: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 301: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 108: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 201: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 205: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 105: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 211: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 303: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 302: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 101: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 203: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 104: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
+Derslik 111: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 111: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 108: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 101: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 211: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 103: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 211: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 104: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 103: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 210: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 201: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 108: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 210: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 108: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 103: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 202: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 211: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 102: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 104: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 301: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 103: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 205: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 201: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 111: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 303: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 101: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 202: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 201: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 110: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 211: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 205: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 103: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Derslik 303: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 201: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 104: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 102: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 210: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 302: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 205: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 110: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 102: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 209: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 210: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 302: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 105: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 202: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 103: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 203: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 209: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 208: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 301: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 301: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 105: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 211: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 302: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 203: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 204: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 111: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 303: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 210: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 101: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 205: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 104: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 211: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 210: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 103: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 302: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 303: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 208: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 104: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 202: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 209: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 302: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 105: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 303: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 201: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 301: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
-Derslik 208: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 101: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 203: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 108: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 302: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 111: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 101: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 303: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ
-Derslik 105: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 103: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 210: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 211: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 202: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
+Derslik 109: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
   </si>
   <si>
     <t>Derslik 110: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 205: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 204: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 208: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
-Derslik 102: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 111: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 303: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 205: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 204: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 109: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 211: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 102: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 211: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 208: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 203: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 104: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 202: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 111: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 209: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 102: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 211: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 204: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 101: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 209: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 202: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 211: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 303: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 110: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 301: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 201: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 203: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
 Derslik 209: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 109: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 211: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 301: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 104: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 302: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 204: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 210: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 211: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 202: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 301: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 108: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
 Derslik 110: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 209: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 211: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 102: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 101: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 109: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 204: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 302: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 210: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 104: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 303: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 301: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 105: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 302: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
 Derslik 209: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 204: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 202: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 101: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 204: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 104: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 105: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 108: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 205: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 301: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 302: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 103: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 203: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 108: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 111: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 208: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 209: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 105: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 301: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 303: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 104: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 105: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 102: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 203: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 203: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 303: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 205: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>5506</v>
+        <v>5008</v>
       </c>
     </row>
   </sheetData>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,184 +44,184 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 102: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 303: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 111: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
-Derslik 208: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 301: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 101: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 103: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 108: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 302: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 209: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 201: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 202: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 111: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 210: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 103: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 102: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 203: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 203: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 105: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 301: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 109: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 203: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 110: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 209: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 102: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 103: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 108: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 301: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 108: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 201: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 205: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 105: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 211: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 303: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 302: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 101: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 203: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 104: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 111: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 111: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+    <t>Derslik 204: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 104: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 108: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 102: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
+Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 111: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 109: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 104: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 210: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 201: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 205: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 209: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 209: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 108: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 103: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 109: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 104: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 101: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 201: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 102: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 203: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 105: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 111: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 108: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 201: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 209: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 205: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 111: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 102: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 208: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
+Derslik 101: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 110: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 108: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 201: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 203: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 104: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 201: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 203: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 210: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 104: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 103: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 208: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 209: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 211: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 205: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 105: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 202: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 102: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 103: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 210: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 109: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 211: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 104: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 210: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 103: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 101: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 203: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 110: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 104: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 111: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 204: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 105: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 102: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 201: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 108: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 103: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 202: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 102: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 110: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
 Derslik 108: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 101: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 211: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 103: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 211: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 104: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 303: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 103: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 210: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 201: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 108: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 108: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 103: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 202: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 211: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 102: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 104: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 301: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 103: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 205: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 201: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 111: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 303: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 101: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 202: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 201: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 110: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 211: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 205: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 210: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 103: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 303: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 103: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 211: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 202: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
-Derslik 109: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 110: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 209: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 102: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 211: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 204: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 101: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 209: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 202: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 211: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 105: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 303: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 110: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 301: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 208: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 209: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 210: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 201: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 108: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 105: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 102: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 104: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 204: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 108: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 101: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 109: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 201: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
+Derslik 209: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 202: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 201: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 209: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 111: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 105: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 109: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 208: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
 Derslik 201: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 203: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 209: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 302: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 204: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 210: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 211: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 209: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 104: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 109: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 204: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 205: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 105: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 104: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 209: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 103: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 111: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 202: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 201: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 108: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 109: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 208: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 202: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 203: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 105: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 209: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 211: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 103: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 111: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 211: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 108: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 202: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 110: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 203: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 105: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
 Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 202: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 301: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 108: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 110: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 209: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 201: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 211: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 102: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 101: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 109: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 204: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 302: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 210: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 104: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 303: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 301: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 105: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 302: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 209: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 203: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 303: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 205: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>5008</v>
+        <v>2002</v>
       </c>
     </row>
   </sheetData>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,184 +44,184 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 204: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 104: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 108: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 102: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+    <t>Derslik 105: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 202: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 109: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 208: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 101: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
+Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
+Derslik 102: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 203: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 208: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 109: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
+Derslik 205: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 103: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
+Derslik 202: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 204: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 102: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 103: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 205: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
+Derslik 208: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 102: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 211: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 202: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
+Derslik 205: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
+Derslik 104: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 102: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 211: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 203: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 204: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 108: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 202: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
+Derslik 101: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 211: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 111: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 104: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
+Derslik 101: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 205: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
 Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 105: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 111: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 109: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 109: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 202: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
+Derslik 111: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 102: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 101: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 104: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 104: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
+Derslik 202: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
+Derslik 110: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 209: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 203: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
+Derslik 103: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 105: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
+Derslik 104: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
+Derslik 209: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 108: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
+Derslik 111: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 202: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
+Derslik 205: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
+Derslik 203: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
+Derslik 104: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 201: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 111: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 102: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 108: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 211: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 111: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
+Derslik 103: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 205: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 104: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 105: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 203: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
+Derslik 204: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 210: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
+Derslik 208: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 202: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
+Derslik 205: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 105: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 104: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 210: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 109: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 208: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
+Derslik 204: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
 Derslik 104: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 210: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 201: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 205: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 209: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 209: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 108: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 103: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 109: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 104: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 101: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 201: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 102: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 203: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 105: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 111: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 108: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 201: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 209: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 205: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 111: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 102: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 208: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC
-Derslik 101: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 110: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 108: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 201: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 203: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 104: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 201: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 203: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 210: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 104: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 103: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 208: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 209: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 211: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 205: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 105: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 202: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 102: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 103: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 210: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 109: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 104: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 103: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 101: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 203: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 110: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 104: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 111: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 204: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 105: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 102: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 201: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 108: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 103: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 202: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 102: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 110: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 108: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 208: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 209: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 210: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 105: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 201: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 108: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 105: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 102: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 104: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 102: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 204: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 108: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 101: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 109: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 201: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC
-Derslik 209: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 201: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 209: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 111: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 211: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 105: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 109: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 208: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 201: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 209: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 104: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 109: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 204: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 205: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 105: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 104: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 209: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 103: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 111: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 202: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 201: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 108: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 109: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 208: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 202: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 203: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 105: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 209: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 211: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 103: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 111: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 211: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 108: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 202: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 110: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 203: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 105: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 104: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 209: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
+Derslik 111: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 203: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 109: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 204: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
+Derslik 211: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 103: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 108: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 202: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 110: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
+Derslik 101: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 104: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
+Derslik 104: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 105: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 204: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 101: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 110: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 109: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
+Derslik 103: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 102: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 211: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 210: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 108: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 103: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
+Derslik 211: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 201: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 102: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 209: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
+Derslik 105: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
+Derslik 109: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
+Derslik 208: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 202: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 109: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
+Derslik 111: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
+Derslik 101: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
+Derslik 209: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 210: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
+Derslik 211: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
+Derslik 205: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -722,7 +722,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>2002</v>
+        <v>5006</v>
       </c>
     </row>
   </sheetData>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,184 +44,163 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 105: Sosyoloji [1. Sınıf] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 202: Teknoloji Yönetiminin Esasları [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 109: Ticaret Hukuku (Tasfiye) [0. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 208: Mali Tablolar Analizi [3. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 101: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] - Prof. Dr. Burak ÇAPRAZ
-Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 209: Üretim Çizelgeleme [Üretim Yönetimi Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 209: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Haluk SOYUER
-Derslik 102: Yatırım Yönetimi [3. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111: Üretim ve İşlemler Yönetimi [İşletme Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 203: E-Pazarlama [Pazarlama Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 208: Operations Management I [2. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 109: Muhasebe I (Örgün + İ.Ö.) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Pazarlama Kuramı [İşletme Doktora] - Prof. Dr. G. Nazan GÜNAY
-Derslik 205: Stok Yönetimi [Üretim Yönetimi Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 103: Dijital Dönüşümün Yönetimi [İşletme Tezli] - Doç. Dr. Haydar YALÇIN
-Derslik 202: Organizational Behavior (Tek) [2. Sınıf] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 204: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 102: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108: Business I (Tasfiye) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 103: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 205: Matematik-I (Çift) [1. Sınıf] - ÖĞRETMEN 2
-Derslik 208: Örgütsel Davranış [İşletme Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 102: Endüstriyel Pazarlama [Pazarlama Tezli] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 211: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201: İşletmeye Giriş [0. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 202: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. Aydın KOÇAK
-Derslik 205: Bilgi Yönetimi [3. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 104: Kariyer Planlama [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 102: Pazarlama Yönetimi [İşletme Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 211: Yönetim Geliştirme [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 203: Marketing Management I [2. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 204: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 108: Araştırma Yöntemleri (Çift) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 202: Türk Dili I [1. Sınıf] - ÖĞRETMEN 4
-Derslik 101: Örgütsel Davranış [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 211: Hizmet Pazarlaması [İşletme Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 111: Pazarlamada Güncel Konular [Pazarlama Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 104: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] - Prof. Dr. Haluk SOYUER
-Derslik 101: Tüketici Davranışları [İşletme Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 201: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 205: Yönetim Muhasebesi [2. Sınıf] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Burak ÇAPRAZ
-Derslik 109: Operations Research I [3. Sınıf] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Introduction to Microeconomics [1. Sınıf] - ÖĞRETMEN 3
-Derslik 111: Örgüt Sosyolojisi [İşletme Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 102: System Analysis and Design [4. Sınıf] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Borçlar Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 101: Sürdürülebilir Pazarlama [3. Sınıf] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 104: Pazarlamada Güncel Konular [İşletme Tezli] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 104: Vestel İşletmecilik Seminerleri I [4. Sınıf] - Prof. Dr. G. Nazan GÜNAY
-Derslik 202: Stok Yönetimi [İşletme Tezli] - Doç. Dr. Aydın KOÇAK
-Derslik 110: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 209: İşletme Hukuku [3. Sınıf] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 203: Pazarlama Yönetimi [Pazarlama Tezli] - Prof. Dr. Aykan CANDEMİR
-Derslik 103: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 105: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] - Prof. Dr. Türker SUSMUŞ
-Derslik 104: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] - ÖĞRETMEN 5
-Derslik 209: Organizational Behavior (Çift) [2. Sınıf] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 108: Human Resources Management [4. Sınıf] - Prof. Dr. Burak ÇAPRAZ
-Derslik 111: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 202: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] - Prof. Dr. Haluk SOYUER
-Derslik 205: Üretim Çizelgeleme [İşletme Tezli] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Enformetri [3. Sınıf] - Doç. Dr. Haydar YALÇIN
-Derslik 203: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] - Doç. Dr. Sema AYDIN
-Derslik 104: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 201: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 111: Tedarik Zinciri Yönetimi ve Lojistik [Üretim Yönetimi Tezli] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 105: Endüstriyel Pazarlama [İşletme Tezli] - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208: Muhasebe I [2. Sınıf] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 102: Consumer Behavior (Çift) [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 108: Yönetimde Güncel Yaklaşımlar [İşletme Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 211: Retailing I [4. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 111: Hizmet Pazarlaması [Pazarlama Tezli] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 210: Financial Management I [3. Sınıf] - Prof. Dr. Dilek DEMİRHAN
-Derslik 103: Muhasebe II (Tasfiye) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 205: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 104: Reklamcılık Yönetimi [3. Sınıf] - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 105: Yönetimde Güncel Yaklaşımlar [Yönetim Bilimi ve Organizasyon Tezli] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 203: Matematik-I (Tek) [1. Sınıf] - ÖĞRETMEN 1
-Derslik 204: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 210: Tüketici Davranışları [Pazarlama Tezli] - Prof. Dr. G. Nazan GÜNAY
-Derslik 208: Uygulamalı Finansal Piyasa İşlemleri (Örgün) [0. Sınıf] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Introduction to Business (Örgün + İ.Ö) [0. Sınıf] - Araş. Gör. Dr. Begüm KANAT TİRYAKİ
-Derslik 205: Örgüt Sosyolojisi [Yönetim Bilimi ve Organizasyon Tezli] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 105: Araştırma Yöntemleri (Tek) [3. Sınıf] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 104: E-Pazarlama [İşletme Tezli] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 210: Consumer Behavior (Tek) [3. Sınıf] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 109: Global Marketing (Çift) [4. Sınıf] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 208: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] - Doç. Dr. Aydın KOÇAK
-Derslik 204: İstatistik I [2. Sınıf] - Doç. Dr. İnanç KABASAKAL
-Derslik 104: Business [1. Sınıf] - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 209: Global Marketing (Tek) [4. Sınıf] - Prof. Dr. Aykan CANDEMİR
-Derslik 111: Management Consultancy [3. Sınıf] - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 203: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 109: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 204: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. İnanç KABASAKAL
-Derslik 211: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 103: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 108: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 202: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 110: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Keti VENTURA
-Derslik 101: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 104: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. G. Nazan GÜNAY
-Derslik 104: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 109: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 105: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 204: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 101: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 109: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] - Doç. Dr. Haydar YALÇIN
-Derslik 103: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 102: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 211: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 210: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 108: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 103: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. Aydın KOÇAK
-Derslik 211: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 201: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 102: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 209: Hizmet Pazarlaması [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Aykan CANDEMİR
-Derslik 105: Örgütler ve Yönetim [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Derya İLİC
-Derslik 109: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Dilek DEMİRHAN
-Derslik 208: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 202: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 109: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] - Prof. Dr. Haluk SOYUER
-Derslik 111: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] - Araş. Gör. Dr. Özgür BABACAN
-Derslik 101: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] - Doç. Dr. Sema AYDIN
-Derslik 209: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 210: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] - Prof. Dr. Burak ÇAPRAZ
-Derslik 211: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Burcu ARACIOĞLU
-Derslik 105: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] - Prof. Dr. Murat KOCAMAZ
-Derslik 205: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 101: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 202: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 104: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 210: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 205: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 210: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 204: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 110: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 101: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 211: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 111: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 102: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 210: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 210: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 102: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 211: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 105: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 205: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 101: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 210: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 108: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 205: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 111: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 208: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 202: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 208: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 103: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 111: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 211: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Introduction to Microeconomics [1. Sınıf] "Zorunlu" - ÖĞRETMEN 3
+Derslik 201: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 111: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 204: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 205: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 105: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 211: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 202: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 111: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 209: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 210: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
+Derslik 202: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Zorunlu" - ÖĞRETMEN 5
+Derslik 201: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 104: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 110: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 105: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 205: Matematik-I (Tek) [1. Sınıf] "Zorunlu" - ÖĞRETMEN 1
+Derslik 209: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 202: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 209: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 203: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 104: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 103: Matematik-I (Çift) [1. Sınıf] "Zorunlu" - ÖĞRETMEN 2
+Derslik 108: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 208: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 104: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 204: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
+  </si>
+  <si>
+    <t>Derslik 102: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 201: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 204: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 108: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 205: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 104: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 202: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 211: Türk Dili I [1. Sınıf] "Zorunlu" - ÖĞRETMEN 4
+Derslik 109: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 205: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 203: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 204: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 211: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 101: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 109: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 101: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 204: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 109: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 209: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 102: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 211: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 105: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 110: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 210: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 110: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 103: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 102: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 202: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 204: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 208: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 202: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 111: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 110: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 103: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 109: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
+Derslik 209: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 205: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 203: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 202: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 103: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 211: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 111: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 101: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 110: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -722,7 +701,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>5006</v>
+        <v>2747</v>
       </c>
     </row>
   </sheetData>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,163 +44,163 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 101: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+    <t>Derslik 105: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 209: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 210: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 211: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 201: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 205: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 211: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
 Derslik 202: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 104: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 110: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 205: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 210: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 204: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 110: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 101: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 211: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 111: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 102: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 210: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 104: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 210: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 102: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 211: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 201: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 208: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 204: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
+  </si>
+  <si>
+    <t>Derslik 204: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 205: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 109: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 110: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 105: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
+Derslik 202: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 203: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 210: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 104: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 209: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 201: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 205: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 202: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 208: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 201: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 202: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 210: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 103: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
 Derslik 105: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
   </si>
   <si>
-    <t>Derslik 205: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 104: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 101: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 210: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 108: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 205: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+    <t>Derslik 202: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 203: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 101: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 210: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 208: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
+Derslik 105: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 201: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 101: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2
+Derslik 210: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 103: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 105: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 203: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 208: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 203: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
+Derslik 111: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
+Derslik 110: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 210: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 204: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 108: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 204: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 208: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 211: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
 Derslik 111: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 208: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 202: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 208: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 103: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 111: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 211: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Introduction to Microeconomics [1. Sınıf] "Zorunlu" - ÖĞRETMEN 3
-Derslik 201: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 111: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 204: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 205: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 105: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 211: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 202: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 111: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 209: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 210: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
-Derslik 202: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Zorunlu" - ÖĞRETMEN 5
-Derslik 201: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 104: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 110: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 105: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 205: Matematik-I (Tek) [1. Sınıf] "Zorunlu" - ÖĞRETMEN 1
-Derslik 209: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 202: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 209: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 203: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 104: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 103: Matematik-I (Çift) [1. Sınıf] "Zorunlu" - ÖĞRETMEN 2
-Derslik 108: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 208: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 104: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 204: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR</t>
-  </si>
-  <si>
-    <t>Derslik 102: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 201: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 103: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 204: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 108: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 205: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 104: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 202: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: Türk Dili I [1. Sınıf] "Zorunlu" - ÖĞRETMEN 4
+Derslik 102: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 111: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 203: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 211: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 110: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 111: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 208: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 205: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
 Derslik 109: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
   </si>
   <si>
-    <t>Derslik 205: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 203: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 204: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 110: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 211: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 101: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 109: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 209: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 101: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 204: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 210: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 109: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 209: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 102: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 211: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 105: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
-Derslik 110: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+    <t>Derslik 209: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 110: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 103: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 202: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 208: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 109: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 111: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 204: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 103: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 101: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 109: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 105: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 211: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 104: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 110: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 108: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 211: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 201: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 204: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 104: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 109: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 203: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Derslik 210: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 105: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 209: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 109: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 204: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 203: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 104: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
+Derslik 111: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
 Derslik 110: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 103: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 102: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 202: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 208: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 105: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 202: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 111: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 110: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 103: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 109: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 210: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
-Derslik 209: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 205: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 203: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 202: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 103: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 211: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 111: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 101: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
-Derslik 110: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 104: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 102: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 201: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 101: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 109: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 208: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 211: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 202: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 204: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 210: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 108: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 104: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 101: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,163 +44,163 @@
     <t>Cuma</t>
   </si>
   <si>
-    <t>Derslik 105: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 209: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 210: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 211: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 201: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 205: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 211: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 202: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 201: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 208: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 204: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS</t>
-  </si>
-  <si>
-    <t>Derslik 204: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 205: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 109: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 110: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 105: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
-Derslik 202: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 203: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 210: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 104: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 209: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 201: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 205: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 202: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
-  </si>
-  <si>
-    <t>Derslik 208: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 201: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+    <t>Derslik 102: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 101: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 211: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 105: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 104: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 201: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 204: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 205: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 102: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 104: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 111: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 208: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 105: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 108: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
+  </si>
+  <si>
+    <t>Derslik 101: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 104: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
 Derslik 202: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 210: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 103: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 105: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 202: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 203: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 101: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 210: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 208: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
-Derslik 105: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 201: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 101: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2
-Derslik 210: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 103: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 105: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 203: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 208: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 203: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
-Derslik 111: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
-Derslik 110: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 210: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 108: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 204: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 204: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 101: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 202: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 205: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 104: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
+  </si>
+  <si>
+    <t>Derslik 211: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 103: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 102: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 205: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 204: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 102: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 108: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 110: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
+Derslik 205: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 104: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 210: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
+Derslik 105: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 108: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 108: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 110: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 201: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 205: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 103: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 111: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
+Derslik 108: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
+Derslik 103: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 204: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 105: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 202: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
 Derslik 208: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 211: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 111: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 108: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 103: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
 Derslik 102: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
   </si>
   <si>
-    <t>Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 111: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 203: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 110: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 111: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 208: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 205: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
+    <t>Derslik 108: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 210: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 111: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 201: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 101: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 208: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 105: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 203: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
 Derslik 109: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
   </si>
   <si>
-    <t>Derslik 209: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 110: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 103: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 202: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 101: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 204: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 208: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 109: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 111: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 204: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 103: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 101: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 109: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 105: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 211: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 104: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 110: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 108: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 211: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 208: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 201: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+    <t>Derslik 202: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 210: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 204: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 201: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 209: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 210: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 111: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 104: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 211: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 101: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 102: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 210: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 204: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 103: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 208: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 108: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 203: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
 Derslik 204: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 104: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 109: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 203: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
-  </si>
-  <si>
-    <t>Derslik 210: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 105: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 209: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 109: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 203: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 104: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
-Derslik 111: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 105: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 110: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 104: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 102: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 201: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 101: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 109: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 208: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 211: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 202: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 204: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 210: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 108: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 104: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
-Derslik 101: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 202: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
+Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 109: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 205: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 108: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 110: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 210: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 105: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 101: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 209: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 204: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 101: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 211: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 111: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 208: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 110: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 201: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 211: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 209: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 202: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 109: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 102: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>

--- a/isletme_ders_programi.xlsx
+++ b/isletme_ders_programi.xlsx
@@ -44,163 +44,163 @@
     <t>Cuma</t>
   </si>
   <si>
+    <t>Derslik 110: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 108: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 103: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 209: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 205: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
+  </si>
+  <si>
+    <t>Derslik 208: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 201: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 202: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 209: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 101: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 211: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 209: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 103: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 110: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 102: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 205: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 202: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 211: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 105: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 208: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
     <t>Derslik 102: Muhasebe I [2. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 101: İleri Örgüt Sosyolojisi [Yönetim ve Organizasyon Doktora] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 211: Girişimcilik ve KOBİ Yönetimi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 105: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 104: Üretim İşlemler Stratejisi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 201: Enformetri [3. Sınıf] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 204: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 205: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 102: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 104: Pazarlama Kuramı [İşletme Doktora] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 111: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 208: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 105: Araştırma Yöntemleri (Tek) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 108: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2</t>
-  </si>
-  <si>
-    <t>Derslik 101: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 104: Örgüt Sosyolojisi [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 202: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 204: Mali Tablolar Analizi [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 101: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 202: Kariyer Planlama [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 209: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 205: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 104: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER</t>
-  </si>
-  <si>
-    <t>Derslik 211: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 103: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 102: Borçlar Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 205: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 204: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ</t>
-  </si>
-  <si>
-    <t>Derslik 211: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 102: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 108: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 110: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
-Derslik 205: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 104: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 210: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
-Derslik 105: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 108: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 108: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 110: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 201: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 205: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 102: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 103: Üretim Çizelgeleme [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 111: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
-Derslik 108: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
-Derslik 103: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 204: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 105: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC
-Derslik 202: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201: Yatırım Yönetimi [3. Sınıf] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 208: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 108: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 103: Financial Management I [3. Sınıf] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 102: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 108: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 210: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 111: E-Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 201: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 101: Yönetim Geliştirme [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 208: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 105: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 203: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
-Derslik 109: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
-  </si>
-  <si>
-    <t>Derslik 202: E-İş ve Kurumsal Kaynak Planlama [3. Sınıf] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 210: Dijital Dönüşümün Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 204: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 201: İleri Örgütsel Davranış [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 209: Sürdürülebilir Pazarlama [3. Sınıf] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
-  </si>
-  <si>
-    <t>Derslik 210: Consumer Behavior (Çift) [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
-Derslik 111: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 104: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
-Derslik 211: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+Derslik 210: Bilgi Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 204: Matematik-I (Çift) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 2
+Derslik 103: Human Resources Management [4. Sınıf] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 105: Management Consultancy [3. Sınıf] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 101: Marketing Management I [2. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 111: Üretimde Yenilik ve Teknoloji Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 202: Modelleme ve Optimizasyon [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 201: Araştırma Yöntemleri (Çift) [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 110: Örgütsel Davranış [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 105: Küresel Tedarik Zinciri ve Lojistik [3. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 204: Teknoloji ve Sanayi Dinamikleri [3. Sınıf] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 204: Tüketici Davranışları [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 109: Yönetim Bilişim Sistemleri [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 203: Yönetimde Güncel Yaklaşımlar [İşletme Tezli, Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 111: Consumer Behavior (Tek) [3. Sınıf] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 205: Tedarik Zinciri Yönetimi ve Lojistik [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104: Introduction to Microeconomics [1. Sınıf] "Seçmeli" - ÖĞRETMEN 3
+Derslik 205: Stok Yönetimi [İşletme Tezli, Üretim Yönetimi Tezli] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 211: Üretim ve İşlemler Yönetimi [İşletme Tezli] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 105: Organizational Behavior (Tek) [2. Sınıf] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 203: Bilimsel Araştırma Yöntemleri ve Etik [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 101: Pazarlamada Güncel Konular [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 103: Vestel İşletmecilik Seminerleri I [4. Sınıf] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
+Derslik 104: Reklamcılık Yönetimi [3. Sınıf] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 110: İşletme Hukuku [3. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 108: Türk Dili I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 4
+Derslik 105: Hizmet Pazarlaması [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 210: İleri Üretim Çizelgeleme [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 102: Uygulamalı Finansal Piyasa İşlemleri [3. Sınıf] "Zorunlu" - Prof. Dr. Türker SUSMUŞ
+Derslik 202: Atatürk İlkeleri ve İnkılap Tarihi I [1. Sınıf] "Seçmeli" - ÖĞRETMEN 5
+Derslik 203: Global Marketing (Tek) [4. Sınıf] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 105: Operations Management I [2. Sınıf] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 104: Seminer [Üretim Yönetimi ve Sayısal Yöntemler Tezli] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 204: Operations Research I [3. Sınıf] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 105: Teknoloji Yönetiminin Esasları [İşletme Tezli] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 110: Hukukun Temel Kavramları (Örgün + İ.Ö.) [1. Sınıf] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 208: Yönetimin Felsefi Temelleri [Yönetim ve Organizasyon Doktora] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 101: Global Marketing (Çift) [4. Sınıf] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 111: Stratejik Stok Yönetimi [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [Pazarlama Tezli] "Zorunlu" - Doç. Dr. Elif ÜSTÜNDAĞLI ERTEN
+Derslik 108: Yönetim Muhasebesi [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 209: İnsan Kaynakları Yönetiminde Yeni Yaklaşımlar [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Derya İLİC</t>
+  </si>
+  <si>
+    <t>Derslik 205: Sosyoloji [1. Sınıf] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 204: Bilimsel Araştırma Yöntemleri ve Etik [İşletme Tezli] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 201: Retailing I [4. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 108: Pazarlama Yönetimi [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [Üretim Yönetimi ve Sayısal Yöntemler Doktora] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 105: İstatistik I [2. Sınıf] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 202: System Analysis and Design [4. Sınıf] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 203: Business [1. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Miray BAYBARS
+Derslik 101: Stratejik Yönetimde Güncel Konular [Yönetim ve Organizasyon Doktora] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 110: Endüstriyel Pazarlama [İşletme Tezli, Pazarlama Tezli] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU</t>
+  </si>
+  <si>
+    <t>Derslik 104: Yatırım Analizi ve Portföy Yönetimi [İşletme Tezli] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 103: Organizational Behavior (Çift) [2. Sınıf] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 110: Matematik-I (Tek) [1. Sınıf] "Seçmeli" - ÖĞRETMEN 1
+Derslik 208: Değişim Yönetimi ve Yönetim Danışmanlığı [Yönetim Bilimi ve Organizasyon Tezli] "Zorunlu" - Prof. Dr. Derya İLİC</t>
   </si>
   <si>
     <t>Derslik 101: Tüketici Davranışları A [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 205: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 102: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
-Derslik 210: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 211: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 109: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 204: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 102: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
+Derslik 204: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 108: Bilimsel Araştırma Yöntemleri ve Etik [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 209: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 210: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 205: Stratejik Yatırım Kararları ve Planlama [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 103: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN</t>
   </si>
   <si>
     <t>Derslik 103: Tüketici Davranışları B [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. G. Nazan GÜNAY
-Derslik 208: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 105: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
-Derslik 108: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
-Derslik 203: Vadeli İşlem Piyasaları [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
-Derslik 204: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 202: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
-Derslik 205: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 109: Uluslararası Finansman [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Araş. Gör. Dr. Özgür BABACAN
-Derslik 205: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 203: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
-Derslik 108: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 110: Kurumsal Koçluk ve Mentorluk [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
-Derslik 210: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 209: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 105: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
-Derslik 101: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
-  </si>
-  <si>
-    <t>Derslik 209: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 204: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
-Derslik 101: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
-Derslik 211: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
-Derslik 111: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
-Derslik 103: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
-Derslik 208: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
-Derslik 110: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
-  </si>
-  <si>
-    <t>Derslik 201: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
-Derslik 108: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
-Derslik 211: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
-Derslik 209: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
-Derslik 110: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
-Derslik 202: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 203: Stratejik Üretim Yönetimi ve Üretimde Dijitalleşme [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 104: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 102: Yönetim Atölyesi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Hakan ERKAL
+Derslik 202: Bilimsel Araştırma Yöntemleri ve Etik [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 208: Tedarik Zinciri Yönetimi ve Lojistik [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
+Derslik 201: Stratejik Finans Yönetimi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Dilek DEMİRHAN
+Derslik 105: İşlemler Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ</t>
+  </si>
+  <si>
+    <t>Derslik 209: Malzeme ve Stok Yönetimi [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 111: Bilimsel Araştırma Yöntemleri ve Etik [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Haydar YALÇIN
+Derslik 102: Akıllı Karar Modelleri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. U. Gökay ÇİÇEKLİ
+Derslik 211: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Esin GÜRBÜZ
+Derslik 202: Örgütsel Davranış [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. A. Nazlı AYYILDIZ ÜNNÜ
+Derslik 205: Örgütler ve Yönetim [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Derya İLİC
+Derslik 210: Perakendecilik [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. İpek KAZANÇOĞLU
+Derslik 109: Pazarlama Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA</t>
+  </si>
+  <si>
+    <t>Derslik 103: Tedarik Zinciri ve Lojistik İçin Bilgi Sistemleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 109: Proje Yönetimi [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Aydın KOÇAK
+Derslik 102: İnsan Kaynakları Yönetimi [İnsan Kaynakları Yönetimi ve Yönetim Geliştirme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Burcu ŞENTÜRK YILDIZ
+Derslik 208: Pazarlama Yönetimi [İşletme İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi A. Erhan ZALLUHOĞLU
+Derslik 211: Sermaye Piyasaları ve Menkul Kıymetler Analizi [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Dr. Öğr. Üyesi Ş. Sertaç ÇAKI
+Derslik 110: Stratejik Pazarlama Yönetimi [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Ayla Özhan DEDEOĞLU
+Derslik 209: Endüstriyel Pazarlama [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Keti VENTURA
+Derslik 105: Veri Odaklı Üretim Planlama Stratejileri [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
+Derslik 210: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+  </si>
+  <si>
+    <t>Derslik 203: İşlemler Yönetimi [Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Haluk SOYUER
+Derslik 208: İş Analitiğinde Sayısal Yöntemler [Dijital Teknolojilerle Üretim Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. İnanç KABASAKAL
+Derslik 110: Ticaret Hukuku [İşletme İ.Ö. Tezsiz] "Zorunlu" - Doç. Dr. Sema AYDIN
+Derslik 103: Hizmet Pazarlaması [Pazarlama ve Marka Yönetimi İ.Ö. Tezsiz, Uzaktan Öğretim İşletme Tezsiz] "Zorunlu" - Prof. Dr. Aykan CANDEMİR
+Derslik 111: Örgütler ve Yönetim [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burak ÇAPRAZ
+Derslik 101: Lojistik ve Tedarik Zincirinde Güncel Konular [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Burcu ARACIOĞLU
 Derslik 109: Ağ Modelleri [Uzaktan Öğretim Lojistik Yönetimi İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Murat KOCAMAZ
-Derslik 102: Stratejik İşletme Finansı [İşletme İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
+Derslik 201: Finansal Muhasebe [Muhasebe ve Finansman İ.Ö. Tezsiz] "Zorunlu" - Prof. Dr. Türker SUSMUŞ</t>
   </si>
   <si>
     <t>Kriter</t>
@@ -701,7 +701,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>2747</v>
+        <v>2751</v>
       </c>
     </row>
   </sheetData>
